--- a/gdp_revisions_analysis/output/tables/unbiassdness_r_q_tesis.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_r_q_tesis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="6_{76D8C09D-D5E5-4EFE-91CB-6B73367933FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF9DAD8-714B-43D4-817F-FD0E8C9F3B1D}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="6_{76D8C09D-D5E5-4EFE-91CB-6B73367933FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{554FF1A1-9A29-4D69-ADFF-4290D4E0414C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="r_y_e" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Horizonte (h)</t>
-  </si>
-  <si>
     <t>PBI</t>
   </si>
   <si>
@@ -131,16 +126,88 @@
     <t>-0.036*</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>0.025*</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>P 99</t>
+  </si>
+  <si>
     <t>P99</t>
   </si>
   <si>
-    <t>SD</t>
+    <t>0.521***</t>
+  </si>
+  <si>
+    <t>0.354***</t>
+  </si>
+  <si>
+    <t>0.282***</t>
+  </si>
+  <si>
+    <t>0.225***</t>
+  </si>
+  <si>
+    <t>1.619***</t>
+  </si>
+  <si>
+    <t>1.484***</t>
+  </si>
+  <si>
+    <t>1.563***</t>
+  </si>
+  <si>
+    <t>0.659**</t>
+  </si>
+  <si>
+    <t>0.131**</t>
+  </si>
+  <si>
+    <t>0.101*</t>
+  </si>
+  <si>
+    <t>0.276***</t>
+  </si>
+  <si>
+    <t>0.214***</t>
+  </si>
+  <si>
+    <t>0.222***</t>
+  </si>
+  <si>
+    <t>0.172***</t>
+  </si>
+  <si>
+    <t>0.044**</t>
+  </si>
+  <si>
+    <t>0.039*</t>
+  </si>
+  <si>
+    <t>-0.183**</t>
+  </si>
+  <si>
+    <t>-0.196***</t>
+  </si>
+  <si>
+    <t>-0.149**</t>
+  </si>
+  <si>
+    <t>Revisiones de predicción</t>
+  </si>
+  <si>
+    <t>Errores de predicción</t>
   </si>
 </sst>
 </file>
@@ -221,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -242,12 +309,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -584,57 +654,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496513D8-45F4-412F-B325-A911B1FC58A0}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -642,22 +709,19 @@
         <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.223</v>
       </c>
-      <c r="E3" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -665,78 +729,69 @@
         <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E4" s="2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
         <v>-0.4</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.112</v>
       </c>
-      <c r="E5" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -744,22 +799,19 @@
         <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E8" s="2">
-        <v>-0.7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -767,78 +819,69 @@
         <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>102</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.216</v>
       </c>
-      <c r="E10" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -846,22 +889,19 @@
         <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
+        <v>-11.9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="F13" s="2">
         <v>4.5919999999999996</v>
       </c>
-      <c r="E13" s="2">
-        <v>-11.9</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12.4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -869,78 +909,69 @@
         <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F14" s="2">
         <v>1.2430000000000001</v>
       </c>
-      <c r="E14" s="2">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.9890000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>102</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="F16" s="2">
         <v>2.6269999999999998</v>
       </c>
-      <c r="E15" s="2">
-        <v>-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>14.3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1">
-        <v>89</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -948,22 +979,19 @@
         <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F18" s="2">
         <v>0.33800000000000002</v>
       </c>
-      <c r="E18" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -971,78 +999,69 @@
         <v>111</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="2">
         <v>0.23100000000000001</v>
       </c>
-      <c r="E19" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>105</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="E20" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>102</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="2">
         <v>0.183</v>
       </c>
-      <c r="E20" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1050,22 +1069,19 @@
         <v>118</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="2">
         <v>0.45100000000000001</v>
       </c>
-      <c r="E23" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -1073,78 +1089,69 @@
         <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24" s="2">
         <v>0.36899999999999999</v>
       </c>
-      <c r="E24" s="2">
-        <v>-0.9</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>102</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="2">
         <v>0.28699999999999998</v>
       </c>
-      <c r="E25" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -1155,19 +1162,16 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D28" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="2">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E28" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -1175,78 +1179,69 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="2">
         <v>0.59199999999999997</v>
       </c>
-      <c r="E29" s="2">
-        <v>-3</v>
-      </c>
-      <c r="F29" s="2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <v>79</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E31" s="2">
         <v>0.5</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1">
-        <v>79</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="F31" s="2">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E30" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <v>73</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1254,22 +1249,19 @@
         <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F33" s="2">
         <v>0.42799999999999999</v>
       </c>
-      <c r="E33" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -1280,75 +1272,66 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D34" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="2">
         <v>0.59699999999999998</v>
       </c>
-      <c r="E34" s="2">
-        <v>-0.9</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>16</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>102</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>-0.01</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="2">
         <v>0.184</v>
       </c>
-      <c r="E35" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1">
-        <v>89</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-2E-3</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -1356,22 +1339,19 @@
         <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.47</v>
       </c>
-      <c r="E38" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>7</v>
       </c>
@@ -1379,78 +1359,69 @@
         <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F39" s="2">
         <v>0.34</v>
       </c>
-      <c r="E39" s="2">
-        <v>-0.7</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1">
+        <v>105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>16</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <v>102</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D41" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E40" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>24</v>
-      </c>
-      <c r="B41" s="1">
-        <v>89</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>4</v>
       </c>
@@ -1458,22 +1429,19 @@
         <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F43" s="4">
         <v>0.315</v>
       </c>
-      <c r="E43" s="4">
-        <v>-0.7</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>7</v>
       </c>
@@ -1484,62 +1452,53 @@
         <v>0.02</v>
       </c>
       <c r="D44" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F44" s="2">
         <v>0.29799999999999999</v>
       </c>
-      <c r="E44" s="2">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>105</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>16</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="5">
         <v>98</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F46" s="6">
         <v>0.19400000000000001</v>
-      </c>
-      <c r="E45" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>24</v>
-      </c>
-      <c r="B46" s="5">
-        <v>89</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.106</v>
-      </c>
-      <c r="E46" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1556,4 +1515,1368 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0F90B2-A458-4DBE-93CB-117A2033365B}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.223</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-11.9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="I14" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4.8929999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="I15" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.6749999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4.0590000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="I17" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>118</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>105</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>111</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-3.3</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>105</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>118</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>105</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G41" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1">
+        <v>102</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>114</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.315</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>16</v>
+      </c>
+      <c r="B47" s="5">
+        <v>98</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G47" s="6">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="H47" s="6">
+        <v>-4.5</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A38:J38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>